--- a/Payment Voucher.xlsx
+++ b/Payment Voucher.xlsx
@@ -12,24 +12,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>Voucher No</t>
   </si>
   <si>
-    <t>15</t>
+    <t>1</t>
   </si>
   <si>
     <t>Voucher Type</t>
   </si>
   <si>
-    <t>Receive</t>
+    <t>Payment</t>
   </si>
   <si>
     <t>Posting Date</t>
   </si>
   <si>
-    <t>2024-08-04 13:55:32</t>
+    <t>2024-08-22</t>
   </si>
   <si>
     <t xml:space="preserve">From </t>
@@ -41,16 +41,19 @@
     <t>Amount</t>
   </si>
   <si>
-    <t>12</t>
+    <t>150</t>
   </si>
   <si>
     <t>Transfer type</t>
   </si>
   <si>
-    <t>Cash</t>
+    <t>Bank</t>
   </si>
   <si>
     <t>Cheque No</t>
+  </si>
+  <si>
+    <t>123</t>
   </si>
   <si>
     <t>Cheque Date</t>
@@ -59,7 +62,7 @@
     <t>Narration</t>
   </si>
   <si>
-    <t>asdaw</t>
+    <t>Deposit ledget</t>
   </si>
 </sst>
 </file>
@@ -163,12 +166,12 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
@@ -176,10 +179,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Payment Voucher.xlsx
+++ b/Payment Voucher.xlsx
@@ -12,24 +12,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>Voucher No</t>
   </si>
   <si>
-    <t>1</t>
+    <t>15</t>
   </si>
   <si>
     <t>Voucher Type</t>
   </si>
   <si>
-    <t>Payment</t>
+    <t>Receive</t>
   </si>
   <si>
     <t>Posting Date</t>
   </si>
   <si>
-    <t>2024-08-22</t>
+    <t>2024-08-04 13:55:32</t>
   </si>
   <si>
     <t xml:space="preserve">From </t>
@@ -41,19 +41,16 @@
     <t>Amount</t>
   </si>
   <si>
-    <t>150</t>
+    <t>12</t>
   </si>
   <si>
     <t>Transfer type</t>
   </si>
   <si>
-    <t>Bank</t>
+    <t>Cash</t>
   </si>
   <si>
     <t>Cheque No</t>
-  </si>
-  <si>
-    <t>123</t>
   </si>
   <si>
     <t>Cheque Date</t>
@@ -62,7 +59,7 @@
     <t>Narration</t>
   </si>
   <si>
-    <t>Deposit ledget</t>
+    <t>asdaw</t>
   </si>
 </sst>
 </file>
@@ -166,12 +163,12 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
@@ -179,10 +176,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
